--- a/PRODUTOS/Mercearia Doce/Mercearia Doce - Torradas.xlsx
+++ b/PRODUTOS/Mercearia Doce/Mercearia Doce - Torradas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Torrada Visconti 120g Tradicional</t>
+          <t>Mini Torradinhas Bauducco 120g Tradicional</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/33cb44c7-1610-4ca3-b6c1-b8373b4bccd4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f007db1e-5d05-489d-be4d-f9a72bd5ddc6.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7891962077772</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Torrada Visconti 120g Integral</t>
+          <t>Torrada Bauducco Toast 128g Cer Multi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 4,69</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0e5125dc-b9ba-4347-bff7-78575173597d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d586ae2a-4820-41b3-912c-76a68e77ce13.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7891962058719</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Torrada Bauducco 142gr Integral</t>
+          <t>Torrada Bauducco Toast 128g Cer Azeite</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 5,79</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a6eeefcb-c255-415b-96a7-6a9741f3fb22.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ecd80274-fcda-4751-bd86-f6c99409e3e4.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7891962058733</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Torrada Bauducco 142gr Trad</t>
+          <t>Torrada Adria 142g Tradicional</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 5,79</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/23405e95-bd22-4734-b6ad-6b8a2e3a1b2c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/74353324-eba7-4e67-99a4-f77573a2019a.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7896085086205</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Torrada Bauducco 142gr Multigrao</t>
+          <t>Torrada Adria 142g Integral</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 5,79</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5ef4432d-1290-4b97-98ad-7fcd65a68401.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ca536b00-c24d-44fb-835e-8252ad7cf9b4.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7896085086212</t>
         </is>
       </c>
     </row>
@@ -596,7 +626,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Torrada Adria 142g Tradicional</t>
+          <t>Torrada Adria 142g Multigraos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -606,7 +636,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/74353324-eba7-4e67-99a4-f77573a2019a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/84f6e0cd-3b93-4595-940d-1ebf1fb5ffa6.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7896085086236</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Crocantissimo Pulman Peito C/req. 40g</t>
+          <t>Torrada Adria 142g Light</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bff6615f-4e1c-4cb9-bd6c-d48c7e182d87.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/81ada587-21b6-47d1-a09b-17937fdc1aea.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7896085086229</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Torrada Visconti 120g Multiraos</t>
+          <t>Torrada Bauducco 142gr Multigrao</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 4,69</t>
+          <t>R$ 5,79</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/26d45418-bdc4-45b7-afde-75c02fb9ce45.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5ef4432d-1290-4b97-98ad-7fcd65a68401.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7891962053202</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Torrada Bauducco Pack 284gr Integral</t>
+          <t>Torrada Bauducco 142gr Integral</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 5,79</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1cc09a33-6747-41f6-aafa-38b5d6e9a0d8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a6eeefcb-c255-415b-96a7-6a9741f3fb22.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7891962053196</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Crocantissimo Pullman 40g Ceb/queijo</t>
+          <t>Torrada Bauducco 142gr Trad</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 5,79</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f7d4cf58-1030-435b-9a8d-879bf6b9cc6c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/23405e95-bd22-4734-b6ad-6b8a2e3a1b2c.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7891962053196</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Torrada Adria 142g Light</t>
+          <t>Torrada Bauducco Pack 284gr Integral</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/81ada587-21b6-47d1-a09b-17937fdc1aea.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1cc09a33-6747-41f6-aafa-38b5d6e9a0d8.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7891962053257</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Crocantissimo 40g Limao/salame</t>
+          <t>Torrada Visconti 120g Multiraos</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 4,69</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fa361636-5787-4cee-8baa-4a07bf7c34f7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/26d45418-bdc4-45b7-afde-75c02fb9ce45.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7891962052588</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Torrada Adria 142g Integral</t>
+          <t>Crocantissimo Pullman 40g Ceb/queijo</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ca536b00-c24d-44fb-835e-8252ad7cf9b4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f7d4cf58-1030-435b-9a8d-879bf6b9cc6c.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7896002364768</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Torrada Bauducco Pack 284g Multigrao</t>
+          <t>Crocantissimo Pulman Peito C/req. 40g</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5bb7a22b-b1f7-4965-b344-e68c07bb7c02.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bff6615f-4e1c-4cb9-bd6c-d48c7e182d87.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7896002365963</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Torrada Adria 142g Multigraos</t>
+          <t>Torrada Bauducco Pack 284g Multigrao</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/84f6e0cd-3b93-4595-940d-1ebf1fb5ffa6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5bb7a22b-b1f7-4965-b344-e68c07bb7c02.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7891962053202</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Torrada Marilan Magic Toast 110g Multi Cereais</t>
+          <t>Crocantissimo 40g Churrasco</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5a72e66a-588f-4799-9f66-1c6e20f0327d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cd3e65c2-c437-4101-b50b-b8dc0f798d60.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7896002302449</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Torrada Marilan Magic Toast 110g Peito De Peru</t>
+          <t>Crocantissimo 40g Limao/salame</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5cb8468f-dc02-4aa9-893f-2f8f1c9e220b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fa361636-5787-4cee-8baa-4a07bf7c34f7.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7896002301398</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mini Torradinhas Bauducco 120g Tradicional</t>
+          <t>Torrada Visconti 120g Integral</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 4,69</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f007db1e-5d05-489d-be4d-f9a72bd5ddc6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0e5125dc-b9ba-4347-bff7-78575173597d.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7891962052571</t>
         </is>
       </c>
     </row>
@@ -947,44 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Torrada Bauducco Toast 128g Cer Azeite</t>
+          <t>Torrada Visconti 120g Tradicional</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 4,29</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ecd80274-fcda-4751-bd86-f6c99409e3e4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Torradas</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Torrada Bauducco Toast 128g Cer Multi</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d586ae2a-4820-41b3-912c-76a68e77ce13.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/33cb44c7-1610-4ca3-b6c1-b8373b4bccd4.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7891962052564</t>
         </is>
       </c>
     </row>
